--- a/data/trans_orig/P1424_2015-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1424_2015-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0199DDF6-FB49-49B8-A173-CDEA210F1293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AF93591-E168-401C-8972-5E26B315BCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E7F8D106-551A-4AE4-9499-BDADB865ADE7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06A205E5-6AC6-4C8D-8893-9A783C34F318}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
   <si>
     <t>Población con diagnóstico de trastornos de ansiedad en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>2,35%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
   </si>
   <si>
     <t>10,56%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>97,65%</t>
   </si>
   <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
   </si>
   <si>
     <t>89,44%</t>
   </si>
   <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
   </si>
   <si>
     <t>92,98%</t>
   </si>
   <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
   </si>
   <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>94,08%</t>
   </si>
   <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
   <si>
     <t>96,15%</t>
   </si>
   <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,10 +195,10 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -207,7 +207,7 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,8%</t>
+    <t>2,88%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -216,19 +216,22 @@
     <t>0,88%</t>
   </si>
   <si>
+    <t>2,41%</t>
+  </si>
+  <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>97,2%</t>
+    <t>97,12%</t>
   </si>
   <si>
     <t>99,3%</t>
@@ -237,28 +240,37 @@
     <t>98,48%</t>
   </si>
   <si>
+    <t>97,59%</t>
+  </si>
+  <si>
     <t>99,12%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
+    <t>1,46%</t>
+  </si>
+  <si>
     <t>2,51%</t>
   </si>
   <si>
     <t>6,55%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>4,78%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>98,09%</t>
@@ -267,19 +279,25 @@
     <t>97,49%</t>
   </si>
   <si>
+    <t>98,54%</t>
+  </si>
+  <si>
     <t>93,45%</t>
   </si>
   <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
   </si>
   <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>95,22%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -291,79 +309,79 @@
     <t>7,07%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
   </si>
   <si>
     <t>13,07%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
   </si>
   <si>
     <t>92,93%</t>
   </si>
   <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
   <si>
     <t>86,93%</t>
   </si>
   <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
   </si>
   <si>
     <t>89,29%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>5,28%</t>
+    <t>5,29%</t>
   </si>
   <si>
     <t>6,75%</t>
@@ -372,19 +390,19 @@
     <t>96,31%</t>
   </si>
   <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
   </si>
   <si>
     <t>91,68%</t>
   </si>
   <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>93,95%</t>
@@ -393,70 +411,67 @@
     <t>93,25%</t>
   </si>
   <si>
-    <t>94,72%</t>
+    <t>94,71%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>5,41%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
   </si>
   <si>
     <t>95,61%</t>
   </si>
   <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>94,59%</t>
   </si>
   <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
+    <t>5,18%</t>
   </si>
   <si>
     <t>8,99%</t>
@@ -465,28 +480,28 @@
     <t>7,96%</t>
   </si>
   <si>
-    <t>9,84%</t>
+    <t>9,87%</t>
   </si>
   <si>
     <t>6,82%</t>
   </si>
   <si>
-    <t>6,25%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>95,63%</t>
   </si>
   <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>94,82%</t>
   </si>
   <si>
     <t>91,01%</t>
   </si>
   <si>
-    <t>90,16%</t>
+    <t>90,13%</t>
   </si>
   <si>
     <t>92,04%</t>
@@ -495,7 +510,10 @@
     <t>93,18%</t>
   </si>
   <si>
-    <t>93,75%</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
   </si>
 </sst>
 </file>
@@ -907,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F2F3C9-F8DA-4DFF-97E9-BAB3048217D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD67FC4-9B77-43F4-BDA7-BF017F339EE1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1377,7 +1395,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1392,13 +1410,13 @@
         <v>538758</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>517</v>
@@ -1407,13 +1425,13 @@
         <v>540578</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1011</v>
@@ -1422,13 +1440,13 @@
         <v>1079336</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1496,13 +1514,13 @@
         <v>64676</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>213</v>
@@ -1511,13 +1529,13 @@
         <v>231326</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>275</v>
@@ -1526,13 +1544,13 @@
         <v>296002</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1547,13 +1565,13 @@
         <v>3312942</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3113</v>
@@ -1562,13 +1580,13 @@
         <v>3300774</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6266</v>
@@ -1577,13 +1595,13 @@
         <v>6613716</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1639,7 +1657,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1658,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D27FC4-7828-41CF-9549-D2EB3117965F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0015BA72-FEF9-4EA2-A99E-C747BDA75E85}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1675,7 +1693,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1782,13 +1800,13 @@
         <v>38232</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>182</v>
@@ -1797,13 +1815,13 @@
         <v>108841</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>227</v>
@@ -1812,13 +1830,13 @@
         <v>147073</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,13 +1851,13 @@
         <v>502331</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1243</v>
@@ -1848,13 +1866,13 @@
         <v>723646</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1888</v>
@@ -1863,13 +1881,13 @@
         <v>1225977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,13 +1955,13 @@
         <v>79655</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>264</v>
@@ -1952,13 +1970,13 @@
         <v>186904</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>344</v>
@@ -1967,13 +1985,13 @@
         <v>266559</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,13 +2006,13 @@
         <v>2081589</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>2653</v>
@@ -2003,13 +2021,13 @@
         <v>2059597</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>4564</v>
@@ -2018,13 +2036,13 @@
         <v>4141186</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,13 +2110,13 @@
         <v>29387</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
@@ -2107,13 +2125,13 @@
         <v>45407</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -2122,13 +2140,13 @@
         <v>74793</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,13 +2161,13 @@
         <v>640409</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>946</v>
@@ -2158,13 +2176,13 @@
         <v>668479</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>1596</v>
@@ -2173,13 +2191,13 @@
         <v>1308890</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,13 +2265,13 @@
         <v>147274</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>504</v>
@@ -2262,13 +2280,13 @@
         <v>341151</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>657</v>
@@ -2277,13 +2295,13 @@
         <v>488425</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,13 +2316,13 @@
         <v>3224330</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="H14" s="7">
         <v>4842</v>
@@ -2313,13 +2331,13 @@
         <v>3451723</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>8048</v>
@@ -2328,13 +2346,13 @@
         <v>6676053</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,7 +2408,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1424_2015-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1424_2015-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AF93591-E168-401C-8972-5E26B315BCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5F7B2FB-C843-4D61-98EA-C0B4B47F7384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06A205E5-6AC6-4C8D-8893-9A783C34F318}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{409EFBC7-FE66-48F1-B7D7-B34F2DD7AC9E}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
   <si>
-    <t>Población con diagnóstico de trastornos de ansiedad en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población con diagnóstico de trastornos de ansiedad en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>2,35%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>10,56%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>97,65%</t>
   </si>
   <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>89,44%</t>
   </si>
   <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
   <si>
     <t>92,98%</t>
   </si>
   <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,166 +138,166 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>1,33%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
   </si>
   <si>
     <t>97,51%</t>
   </si>
   <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>98,5%</t>
   </si>
   <si>
     <t>93,45%</t>
   </si>
   <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
   </si>
   <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -925,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD67FC4-9B77-43F4-BDA7-BF017F339EE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE7321C-D4C1-4B7A-AD51-BAD4B6A4A3AD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1676,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0015BA72-FEF9-4EA2-A99E-C747BDA75E85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E432D2C6-5975-4157-BAA9-562723354D55}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
